--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2204266689462</v>
+        <v>21.62966433333333</v>
       </c>
       <c r="H2">
-        <v>11.2204266689462</v>
+        <v>64.888993</v>
       </c>
       <c r="I2">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="J2">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.43724603514203</v>
+        <v>6.546185</v>
       </c>
       <c r="N2">
-        <v>4.43724603514203</v>
+        <v>19.638555</v>
       </c>
       <c r="O2">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="P2">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="Q2">
-        <v>49.78779374938342</v>
+        <v>141.5917842139017</v>
       </c>
       <c r="R2">
-        <v>49.78779374938342</v>
+        <v>1274.326057925115</v>
       </c>
       <c r="S2">
-        <v>0.000107665202571401</v>
+        <v>0.0002920887365350499</v>
       </c>
       <c r="T2">
-        <v>0.000107665202571401</v>
+        <v>0.0002920887365350499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2204266689462</v>
+        <v>21.62966433333333</v>
       </c>
       <c r="H3">
-        <v>11.2204266689462</v>
+        <v>64.888993</v>
       </c>
       <c r="I3">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="J3">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.80083992085861</v>
+        <v>71.03440333333334</v>
       </c>
       <c r="N3">
-        <v>70.80083992085861</v>
+        <v>213.10321</v>
       </c>
       <c r="O3">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510699</v>
       </c>
       <c r="P3">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510698</v>
       </c>
       <c r="Q3">
-        <v>794.4156324317927</v>
+        <v>1536.450300218615</v>
       </c>
       <c r="R3">
-        <v>794.4156324317927</v>
+        <v>13828.05270196753</v>
       </c>
       <c r="S3">
-        <v>0.001717909422180729</v>
+        <v>0.003169532960060627</v>
       </c>
       <c r="T3">
-        <v>0.001717909422180729</v>
+        <v>0.003169532960060626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2204266689462</v>
+        <v>21.62966433333333</v>
       </c>
       <c r="H4">
-        <v>11.2204266689462</v>
+        <v>64.888993</v>
       </c>
       <c r="I4">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="J4">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.300028312245914</v>
+        <v>0.3068453333333334</v>
       </c>
       <c r="N4">
-        <v>0.300028312245914</v>
+        <v>0.920536</v>
       </c>
       <c r="O4">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="P4">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="Q4">
-        <v>3.366445676162971</v>
+        <v>6.636961562249779</v>
       </c>
       <c r="R4">
-        <v>3.366445676162971</v>
+        <v>59.732654060248</v>
       </c>
       <c r="S4">
-        <v>7.279877824957685E-06</v>
+        <v>1.369134323655833E-05</v>
       </c>
       <c r="T4">
-        <v>7.279877824957685E-06</v>
+        <v>1.369134323655832E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2204266689462</v>
+        <v>21.62966433333333</v>
       </c>
       <c r="H5">
-        <v>11.2204266689462</v>
+        <v>64.888993</v>
       </c>
       <c r="I5">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="J5">
-        <v>0.002237159961209179</v>
+        <v>0.004276908378962984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.6627912311017</v>
+        <v>17.965059</v>
       </c>
       <c r="N5">
-        <v>16.6627912311017</v>
+        <v>53.895177</v>
       </c>
       <c r="O5">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="P5">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="Q5">
-        <v>186.9636271085364</v>
+        <v>388.578195898529</v>
       </c>
       <c r="R5">
-        <v>186.9636271085364</v>
+        <v>3497.203763086761</v>
       </c>
       <c r="S5">
-        <v>0.0004043054586320916</v>
+        <v>0.0008015953391307497</v>
       </c>
       <c r="T5">
-        <v>0.0004043054586320916</v>
+        <v>0.0008015953391307497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4939.13178351118</v>
+        <v>4967.017741</v>
       </c>
       <c r="H6">
-        <v>4939.13178351118</v>
+        <v>14901.053223</v>
       </c>
       <c r="I6">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948035</v>
       </c>
       <c r="J6">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948036</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.43724603514203</v>
+        <v>6.546185</v>
       </c>
       <c r="N6">
-        <v>4.43724603514203</v>
+        <v>19.638555</v>
       </c>
       <c r="O6">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="P6">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="Q6">
-        <v>21916.14292342897</v>
+        <v>32515.01703086809</v>
       </c>
       <c r="R6">
-        <v>21916.14292342897</v>
+        <v>292635.1532778128</v>
       </c>
       <c r="S6">
-        <v>0.0473932622785475</v>
+        <v>0.06707500930007655</v>
       </c>
       <c r="T6">
-        <v>0.0473932622785475</v>
+        <v>0.06707500930007655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4939.13178351118</v>
+        <v>4967.017741</v>
       </c>
       <c r="H7">
-        <v>4939.13178351118</v>
+        <v>14901.053223</v>
       </c>
       <c r="I7">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948035</v>
       </c>
       <c r="J7">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948036</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.80083992085861</v>
+        <v>71.03440333333334</v>
       </c>
       <c r="N7">
-        <v>70.80083992085861</v>
+        <v>213.10321</v>
       </c>
       <c r="O7">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510699</v>
       </c>
       <c r="P7">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510698</v>
       </c>
       <c r="Q7">
-        <v>349694.6787524</v>
+        <v>352829.1415780162</v>
       </c>
       <c r="R7">
-        <v>349694.6787524</v>
+        <v>3175462.274202146</v>
       </c>
       <c r="S7">
-        <v>0.7562084115543761</v>
+        <v>0.7278488561213474</v>
       </c>
       <c r="T7">
-        <v>0.7562084115543761</v>
+        <v>0.7278488561213474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4939.13178351118</v>
+        <v>4967.017741</v>
       </c>
       <c r="H8">
-        <v>4939.13178351118</v>
+        <v>14901.053223</v>
       </c>
       <c r="I8">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948035</v>
       </c>
       <c r="J8">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948036</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.300028312245914</v>
+        <v>0.3068453333333334</v>
       </c>
       <c r="N8">
-        <v>0.300028312245914</v>
+        <v>0.920536</v>
       </c>
       <c r="O8">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="P8">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="Q8">
-        <v>1481.87937296701</v>
+        <v>1524.106214409725</v>
       </c>
       <c r="R8">
-        <v>1481.87937296701</v>
+        <v>13716.95592968753</v>
       </c>
       <c r="S8">
-        <v>0.003204537314506926</v>
+        <v>0.003144068428713583</v>
       </c>
       <c r="T8">
-        <v>0.003204537314506926</v>
+        <v>0.003144068428713583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4939.13178351118</v>
+        <v>4967.017741</v>
       </c>
       <c r="H9">
-        <v>4939.13178351118</v>
+        <v>14901.053223</v>
       </c>
       <c r="I9">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948035</v>
       </c>
       <c r="J9">
-        <v>0.9847778694359272</v>
+        <v>0.9821456064948036</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.6627912311017</v>
+        <v>17.965059</v>
       </c>
       <c r="N9">
-        <v>16.6627912311017</v>
+        <v>53.895177</v>
       </c>
       <c r="O9">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="P9">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="Q9">
-        <v>82299.7217715458</v>
+        <v>89232.76677111171</v>
       </c>
       <c r="R9">
-        <v>82299.7217715458</v>
+        <v>803094.9009400054</v>
       </c>
       <c r="S9">
-        <v>0.1779716582884967</v>
+        <v>0.1840776726446662</v>
       </c>
       <c r="T9">
-        <v>0.1779716582884967</v>
+        <v>0.1840776726446662</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.15736650703238</v>
+        <v>2.249417666666667</v>
       </c>
       <c r="H10">
-        <v>2.15736650703238</v>
+        <v>6.748253</v>
       </c>
       <c r="I10">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313067</v>
       </c>
       <c r="J10">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.43724603514203</v>
+        <v>6.546185</v>
       </c>
       <c r="N10">
-        <v>4.43724603514203</v>
+        <v>19.638555</v>
       </c>
       <c r="O10">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="P10">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="Q10">
-        <v>9.572765979677639</v>
+        <v>14.72510418826833</v>
       </c>
       <c r="R10">
-        <v>9.572765979677639</v>
+        <v>132.525937694415</v>
       </c>
       <c r="S10">
-        <v>2.070093311542596E-05</v>
+        <v>3.037631810049602E-05</v>
       </c>
       <c r="T10">
-        <v>2.070093311542596E-05</v>
+        <v>3.037631810049603E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.15736650703238</v>
+        <v>2.249417666666667</v>
       </c>
       <c r="H11">
-        <v>2.15736650703238</v>
+        <v>6.748253</v>
       </c>
       <c r="I11">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313067</v>
       </c>
       <c r="J11">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.80083992085861</v>
+        <v>71.03440333333334</v>
       </c>
       <c r="N11">
-        <v>70.80083992085861</v>
+        <v>213.10321</v>
       </c>
       <c r="O11">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510699</v>
       </c>
       <c r="P11">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510698</v>
       </c>
       <c r="Q11">
-        <v>152.7433607150214</v>
+        <v>159.7860417991256</v>
       </c>
       <c r="R11">
-        <v>152.7433607150214</v>
+        <v>1438.07437619213</v>
       </c>
       <c r="S11">
-        <v>0.0003303047521165369</v>
+        <v>0.0003296215477766468</v>
       </c>
       <c r="T11">
-        <v>0.0003303047521165369</v>
+        <v>0.0003296215477766468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.15736650703238</v>
+        <v>2.249417666666667</v>
       </c>
       <c r="H12">
-        <v>2.15736650703238</v>
+        <v>6.748253</v>
       </c>
       <c r="I12">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313067</v>
       </c>
       <c r="J12">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.300028312245914</v>
+        <v>0.3068453333333334</v>
       </c>
       <c r="N12">
-        <v>0.300028312245914</v>
+        <v>0.920536</v>
       </c>
       <c r="O12">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="P12">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="Q12">
-        <v>0.6472710320007877</v>
+        <v>0.6902233137342222</v>
       </c>
       <c r="R12">
-        <v>0.6472710320007877</v>
+        <v>6.212009823608001</v>
       </c>
       <c r="S12">
-        <v>1.399711887812414E-06</v>
+        <v>1.423857017940383E-06</v>
       </c>
       <c r="T12">
-        <v>1.399711887812414E-06</v>
+        <v>1.423857017940383E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.15736650703238</v>
+        <v>2.249417666666667</v>
       </c>
       <c r="H13">
-        <v>2.15736650703238</v>
+        <v>6.748253</v>
       </c>
       <c r="I13">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313067</v>
       </c>
       <c r="J13">
-        <v>0.0004301417507182751</v>
+        <v>0.0004447851394313068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.6627912311017</v>
+        <v>17.965059</v>
       </c>
       <c r="N13">
-        <v>16.6627912311017</v>
+        <v>53.895177</v>
       </c>
       <c r="O13">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="P13">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="Q13">
-        <v>35.94774771565165</v>
+        <v>40.410921097309</v>
       </c>
       <c r="R13">
-        <v>35.94774771565165</v>
+        <v>363.698289875781</v>
       </c>
       <c r="S13">
-        <v>7.773635359849988E-05</v>
+        <v>8.336341653622361E-05</v>
       </c>
       <c r="T13">
-        <v>7.773635359849988E-05</v>
+        <v>8.336341653622363E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.9684684686235</v>
+        <v>66.41617433333333</v>
       </c>
       <c r="H14">
-        <v>62.9684684686235</v>
+        <v>199.248523</v>
       </c>
       <c r="I14">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="J14">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.43724603514203</v>
+        <v>6.546185</v>
       </c>
       <c r="N14">
-        <v>4.43724603514203</v>
+        <v>19.638555</v>
       </c>
       <c r="O14">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="P14">
-        <v>0.04812584010005624</v>
+        <v>0.06829436374455893</v>
       </c>
       <c r="Q14">
-        <v>279.4065870513655</v>
+        <v>434.7725641782517</v>
       </c>
       <c r="R14">
-        <v>279.4065870513655</v>
+        <v>3912.953077604265</v>
       </c>
       <c r="S14">
-        <v>0.000604211685821921</v>
+        <v>0.0008968893898468237</v>
       </c>
       <c r="T14">
-        <v>0.000604211685821921</v>
+        <v>0.0008968893898468237</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.9684684686235</v>
+        <v>66.41617433333333</v>
       </c>
       <c r="H15">
-        <v>62.9684684686235</v>
+        <v>199.248523</v>
       </c>
       <c r="I15">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="J15">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.80083992085861</v>
+        <v>71.03440333333334</v>
       </c>
       <c r="N15">
-        <v>70.80083992085861</v>
+        <v>213.10321</v>
       </c>
       <c r="O15">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510699</v>
       </c>
       <c r="P15">
-        <v>0.7678974467486015</v>
+        <v>0.7410803971510698</v>
       </c>
       <c r="Q15">
-        <v>4458.220456108645</v>
+        <v>4717.833315450982</v>
       </c>
       <c r="R15">
-        <v>4458.220456108645</v>
+        <v>42460.49983905883</v>
       </c>
       <c r="S15">
-        <v>0.009640821019928109</v>
+        <v>0.009732386521885116</v>
       </c>
       <c r="T15">
-        <v>0.009640821019928109</v>
+        <v>0.009732386521885116</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.9684684686235</v>
+        <v>66.41617433333333</v>
       </c>
       <c r="H16">
-        <v>62.9684684686235</v>
+        <v>199.248523</v>
       </c>
       <c r="I16">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="J16">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.300028312245914</v>
+        <v>0.3068453333333334</v>
       </c>
       <c r="N16">
-        <v>0.300028312245914</v>
+        <v>0.920536</v>
       </c>
       <c r="O16">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="P16">
-        <v>0.0032540712113509</v>
+        <v>0.003201224347919758</v>
       </c>
       <c r="Q16">
-        <v>18.89232331935116</v>
+        <v>20.37949315203645</v>
       </c>
       <c r="R16">
-        <v>18.89232331935116</v>
+        <v>183.415438368328</v>
       </c>
       <c r="S16">
-        <v>4.085430713120392E-05</v>
+        <v>4.204071895167622E-05</v>
       </c>
       <c r="T16">
-        <v>4.085430713120392E-05</v>
+        <v>4.204071895167622E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>62.9684684686235</v>
+        <v>66.41617433333333</v>
       </c>
       <c r="H17">
-        <v>62.9684684686235</v>
+        <v>199.248523</v>
       </c>
       <c r="I17">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="J17">
-        <v>0.01255482885214537</v>
+        <v>0.01313269998680205</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.6627912311017</v>
+        <v>17.965059</v>
       </c>
       <c r="N17">
-        <v>16.6627912311017</v>
+        <v>53.895177</v>
       </c>
       <c r="O17">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="P17">
-        <v>0.1807226419399914</v>
+        <v>0.1874240147564516</v>
       </c>
       <c r="Q17">
-        <v>1049.230444234884</v>
+        <v>1193.170490452619</v>
       </c>
       <c r="R17">
-        <v>1049.230444234884</v>
+        <v>10738.53441407357</v>
       </c>
       <c r="S17">
-        <v>0.002268941839264142</v>
+        <v>0.00246138335611844</v>
       </c>
       <c r="T17">
-        <v>0.002268941839264142</v>
+        <v>0.00246138335611844</v>
       </c>
     </row>
   </sheetData>
